--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2025 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2A6A9-E0B8-4EDF-B475-A2B0119E6F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA21C40-E33A-4FAB-95D0-7A35F77C4FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q4_2024_Obligations__c</t>
+    <t>Q1_2025_Obligations__c</t>
   </si>
   <si>
-    <t>Q4_2024_Expenditures__c</t>
+    <t>Q1_2025_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -31008,6 +31008,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -31224,22 +31239,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31256,29 +31281,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2025 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA21C40-E33A-4FAB-95D0-7A35F77C4FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF427C3-4D4D-4568-BCC5-D0113D567F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="2208" windowWidth="17472" windowHeight="13704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t xml:space="preserve">Field ID </t>
   </si>
@@ -385,12 +385,30 @@
   <si>
     <t>Q1_2025_Expenditures__c</t>
   </si>
+  <si>
+    <t>Prog_Income_Earned_After_12_31_24__c</t>
+  </si>
+  <si>
+    <t>Total_Prog_Income_Obl_Post_Q4_2024__c</t>
+  </si>
+  <si>
+    <t>Total_Prog_Income_Exp_Post_Q4_2024__c</t>
+  </si>
+  <si>
+    <t>Program Income earned on project after December 31, 2024</t>
+  </si>
+  <si>
+    <t>Program Income obligated by deadline and reported after December 31, 2024</t>
+  </si>
+  <si>
+    <t>Program Income reported after Q4 2024 expended</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,13 +468,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -520,7 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -532,9 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -780,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -790,8 +798,7 @@
     <col min="2" max="20" width="35.5" style="3" customWidth="1"/>
     <col min="21" max="21" width="29" style="3" customWidth="1"/>
     <col min="22" max="22" width="25.09765625" style="3" customWidth="1"/>
-    <col min="23" max="25" width="25.59765625" style="3" customWidth="1"/>
-    <col min="26" max="28" width="7.5" style="3" customWidth="1"/>
+    <col min="23" max="28" width="25.59765625" style="3" customWidth="1"/>
     <col min="29" max="16384" width="12.5" style="3"/>
   </cols>
   <sheetData>
@@ -860,10 +867,10 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="246.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -969,9 +976,15 @@
       <c r="Y4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="Z4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1049,9 +1062,15 @@
       <c r="Y5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="Z5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1129,89 +1148,101 @@
       <c r="Y6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="Z6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:30" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="Z7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="55.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1219,10 +1250,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1231,7 +1262,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="8"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -31014,15 +31045,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -31239,6 +31261,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
@@ -31257,14 +31288,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31281,4 +31304,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2025 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Desktop\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2025 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF427C3-4D4D-4568-BCC5-D0113D567F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB8F3C0-CDA0-4C9B-B941-F52F161FBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="2208" windowWidth="17472" windowHeight="13704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,12 +380,6 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q1_2025_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2025_Expenditures__c</t>
-  </si>
-  <si>
     <t>Prog_Income_Earned_After_12_31_24__c</t>
   </si>
   <si>
@@ -402,6 +396,12 @@
   </si>
   <si>
     <t>Program Income reported after Q4 2024 expended</t>
+  </si>
+  <si>
+    <t>Q2_2025_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2025_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -938,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>30</v>
@@ -977,13 +977,13 @@
         <v>45</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,13 +1149,13 @@
         <v>34</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="409.6" x14ac:dyDescent="0.25">
@@ -1235,13 +1235,13 @@
         <v>68</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="55.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -31039,9 +31039,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31262,27 +31265,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31307,9 +31298,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>